--- a/DMSNewVSale_2025-12-08_20-31.xlsx
+++ b/DMSNewVSale_2025-12-08_20-31.xlsx
@@ -726,6 +726,15 @@
   </si>
   <si>
     <t>9:0</t>
+  </si>
+  <si>
+    <t>VAXIGRIP TETRA 15MCG/0.5ML PREFILLED SYRINGE</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>370.0000</t>
   </si>
   <si>
     <t xml:space="preserve">VEE-OMEGA-3  30CAPS</t>
@@ -4106,21 +4115,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4132,31 +4141,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4172,7 +4181,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4182,14 +4191,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4198,7 +4207,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4215,11 +4224,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>17</v>
@@ -4231,14 +4240,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>224</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4297,14 +4306,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4321,7 +4330,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>15</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4337,7 +4346,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4347,14 +4356,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4363,28 +4372,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4396,14 +4405,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4413,11 +4422,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4429,14 +4438,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4446,14 +4455,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4483,10 +4492,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>266</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4516,10 +4525,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>269</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>270</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4528,7 +4537,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4545,14 +4554,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4561,7 +4570,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4578,14 +4587,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4601,7 +4610,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,7 +4643,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4644,11 +4653,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4660,7 +4669,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4677,14 +4686,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4693,14 +4702,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4710,14 +4719,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4726,14 +4735,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4743,11 +4752,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>17</v>
@@ -4799,7 +4808,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4809,51 +4818,84 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="107" ht="26.25" customHeight="1">
-      <c r="N107" s="13">
-        <v>6370.1674999999996</v>
-      </c>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>290</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>291</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>292</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>224</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>41</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>287</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="N108" s="13">
+        <v>6740.1674999999996</v>
+      </c>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>293</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5362,10 +5404,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
